--- a/drugwarehouse/warehouse.xlsx
+++ b/drugwarehouse/warehouse.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/pmpktn/drugwarehouse/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bsthanh\pmpktn\drugwarehouse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6032192D-928D-8146-B9A2-8057A4C9B658}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="460" windowWidth="24240" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1365" yWindow="465" windowWidth="24240" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$90</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="228">
   <si>
     <t>id</t>
   </si>
@@ -261,9 +263,6 @@
     <t>Thái Lan</t>
   </si>
   <si>
-    <t>TW25</t>
-  </si>
-  <si>
     <t>AD</t>
   </si>
   <si>
@@ -703,12 +702,24 @@
   </si>
   <si>
     <t>Depakin</t>
+  </si>
+  <si>
+    <t>zz</t>
+  </si>
+  <si>
+    <t>Oresol</t>
+  </si>
+  <si>
+    <t>Rơ lưỡi</t>
+  </si>
+  <si>
+    <t>rơ lưỡi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
@@ -1077,23 +1088,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="12" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1128,7 +1139,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1163,7 +1174,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1198,7 +1209,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1233,7 +1244,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1268,7 +1279,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1303,7 +1314,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1338,7 +1349,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1373,7 +1384,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1408,7 +1419,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1443,7 +1454,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1478,7 +1489,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1513,7 +1524,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1548,7 +1559,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1583,7 +1594,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1618,7 +1629,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1653,7 +1664,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1688,7 +1699,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1723,7 +1734,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1758,7 +1769,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1774,6 +1785,9 @@
       <c r="E20" s="3">
         <v>44718</v>
       </c>
+      <c r="F20" t="s">
+        <v>224</v>
+      </c>
       <c r="G20" t="s">
         <v>14</v>
       </c>
@@ -1790,7 +1804,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1810,10 +1824,10 @@
         <v>76</v>
       </c>
       <c r="G21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1825,7 +1839,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1845,10 +1859,10 @@
         <v>76</v>
       </c>
       <c r="G22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I22">
         <v>17100</v>
@@ -1860,7 +1874,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1880,10 +1894,10 @@
         <v>76</v>
       </c>
       <c r="G23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I23">
         <v>22400</v>
@@ -1895,7 +1909,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1930,7 +1944,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1946,6 +1960,9 @@
       <c r="E25" s="3">
         <v>44743</v>
       </c>
+      <c r="F25" t="s">
+        <v>224</v>
+      </c>
       <c r="G25" t="s">
         <v>14</v>
       </c>
@@ -1959,10 +1976,10 @@
         <v>3000</v>
       </c>
       <c r="K25" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1978,6 +1995,9 @@
       <c r="E26" s="3">
         <v>44866</v>
       </c>
+      <c r="F26" t="s">
+        <v>224</v>
+      </c>
       <c r="G26" t="s">
         <v>14</v>
       </c>
@@ -1991,10 +2011,10 @@
         <v>4000</v>
       </c>
       <c r="K26" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2010,6 +2030,9 @@
       <c r="E27" s="3">
         <v>44896</v>
       </c>
+      <c r="F27" t="s">
+        <v>224</v>
+      </c>
       <c r="G27" t="s">
         <v>14</v>
       </c>
@@ -2023,10 +2046,10 @@
         <v>4000</v>
       </c>
       <c r="K27" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2042,6 +2065,9 @@
       <c r="E28" s="3">
         <v>44958</v>
       </c>
+      <c r="F28" t="s">
+        <v>224</v>
+      </c>
       <c r="G28" t="s">
         <v>14</v>
       </c>
@@ -2058,7 +2084,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2074,6 +2100,9 @@
       <c r="E29" s="3">
         <v>44378</v>
       </c>
+      <c r="F29" t="s">
+        <v>224</v>
+      </c>
       <c r="G29" t="s">
         <v>20</v>
       </c>
@@ -2090,7 +2119,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2106,6 +2135,9 @@
       <c r="E30" s="3">
         <v>44348</v>
       </c>
+      <c r="F30" t="s">
+        <v>224</v>
+      </c>
       <c r="G30" t="s">
         <v>20</v>
       </c>
@@ -2122,7 +2154,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2138,6 +2170,9 @@
       <c r="E31" s="3">
         <v>44440</v>
       </c>
+      <c r="F31" t="s">
+        <v>224</v>
+      </c>
       <c r="G31" t="s">
         <v>20</v>
       </c>
@@ -2154,7 +2189,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2170,6 +2205,9 @@
       <c r="E32" s="3">
         <v>44256</v>
       </c>
+      <c r="F32" t="s">
+        <v>224</v>
+      </c>
       <c r="G32" t="s">
         <v>14</v>
       </c>
@@ -2186,7 +2224,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2203,7 +2241,7 @@
         <v>44927</v>
       </c>
       <c r="F33" t="s">
-        <v>77</v>
+        <v>224</v>
       </c>
       <c r="G33" t="s">
         <v>14</v>
@@ -2221,7 +2259,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2238,7 +2276,7 @@
         <v>44986</v>
       </c>
       <c r="F34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G34" t="s">
         <v>14</v>
@@ -2256,7 +2294,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2273,7 +2311,7 @@
         <v>44197</v>
       </c>
       <c r="F35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s">
         <v>14</v>
@@ -2291,7 +2329,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2308,7 +2346,7 @@
         <v>44287</v>
       </c>
       <c r="F36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G36" t="s">
         <v>14</v>
@@ -2326,7 +2364,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2343,7 +2381,7 @@
         <v>44287</v>
       </c>
       <c r="F37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G37" t="s">
         <v>14</v>
@@ -2361,15 +2399,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D38">
         <v>60</v>
@@ -2378,7 +2416,7 @@
         <v>44197</v>
       </c>
       <c r="F38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G38" t="s">
         <v>20</v>
@@ -2396,15 +2434,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D39">
         <v>10</v>
@@ -2413,13 +2451,13 @@
         <v>44927</v>
       </c>
       <c r="F39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I39">
         <v>65000</v>
@@ -2431,12 +2469,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="C40" t="s">
+        <v>86</v>
       </c>
       <c r="D40">
         <v>10</v>
@@ -2448,10 +2489,10 @@
         <v>19</v>
       </c>
       <c r="G40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I40">
         <v>34500</v>
@@ -2463,15 +2504,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D41">
         <v>5</v>
@@ -2480,13 +2521,13 @@
         <v>44866</v>
       </c>
       <c r="F41" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I41">
         <v>32000</v>
@@ -2498,15 +2539,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D42">
         <v>152</v>
@@ -2515,13 +2556,13 @@
         <v>44197</v>
       </c>
       <c r="F42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I42">
         <v>16000</v>
@@ -2533,15 +2574,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C43" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D43">
         <v>300</v>
@@ -2568,15 +2609,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C44" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D44">
         <v>4000</v>
@@ -2585,7 +2626,7 @@
         <v>44805</v>
       </c>
       <c r="F44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G44" t="s">
         <v>14</v>
@@ -2603,15 +2644,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D45">
         <v>500</v>
@@ -2638,15 +2679,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D46">
         <v>500</v>
@@ -2673,15 +2714,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C47" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D47">
         <v>80</v>
@@ -2690,7 +2731,7 @@
         <v>44317</v>
       </c>
       <c r="F47" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G47" t="s">
         <v>20</v>
@@ -2708,15 +2749,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D48">
         <v>100</v>
@@ -2725,7 +2766,7 @@
         <v>44075</v>
       </c>
       <c r="F48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G48" t="s">
         <v>20</v>
@@ -2743,15 +2784,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D49">
         <v>30</v>
@@ -2760,7 +2801,7 @@
         <v>44562</v>
       </c>
       <c r="F49" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G49" t="s">
         <v>14</v>
@@ -2778,15 +2819,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C50" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D50">
         <v>120</v>
@@ -2795,7 +2836,7 @@
         <v>44256</v>
       </c>
       <c r="F50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G50" t="s">
         <v>14</v>
@@ -2813,18 +2854,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>106</v>
+        <v>105</v>
+      </c>
+      <c r="C51" t="s">
+        <v>225</v>
       </c>
       <c r="D51">
         <v>50</v>
       </c>
+      <c r="E51" s="3">
+        <v>44531</v>
+      </c>
       <c r="F51" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G51" t="s">
         <v>20</v>
@@ -2842,15 +2889,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C52" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D52">
         <v>5</v>
@@ -2859,13 +2906,13 @@
         <v>44531</v>
       </c>
       <c r="F52" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G52" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H52" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I52">
         <v>20500</v>
@@ -2877,15 +2924,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C53" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D53">
         <v>5</v>
@@ -2894,13 +2941,13 @@
         <v>44805</v>
       </c>
       <c r="F53" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G53" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H53" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I53">
         <v>25500</v>
@@ -2912,15 +2959,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C54" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D54">
         <v>300</v>
@@ -2929,7 +2976,7 @@
         <v>44927</v>
       </c>
       <c r="F54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G54" t="s">
         <v>14</v>
@@ -2947,15 +2994,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C55" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D55">
         <v>90</v>
@@ -2964,13 +3011,13 @@
         <v>44501</v>
       </c>
       <c r="F55" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G55" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H55" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I55">
         <v>5500</v>
@@ -2982,15 +3029,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C56" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D56">
         <v>120</v>
@@ -2999,7 +3046,7 @@
         <v>44105</v>
       </c>
       <c r="F56" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G56" t="s">
         <v>20</v>
@@ -3017,15 +3064,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C57" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D57">
         <v>340</v>
@@ -3034,7 +3081,7 @@
         <v>44197</v>
       </c>
       <c r="F57" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G57" t="s">
         <v>20</v>
@@ -3052,15 +3099,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C58" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D58">
         <v>440</v>
@@ -3069,13 +3116,13 @@
         <v>44562</v>
       </c>
       <c r="F58" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G58" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H58" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I58">
         <v>4500</v>
@@ -3087,12 +3134,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>113</v>
+        <v>112</v>
+      </c>
+      <c r="C59" t="s">
+        <v>112</v>
       </c>
       <c r="D59">
         <v>10</v>
@@ -3104,10 +3154,10 @@
         <v>43</v>
       </c>
       <c r="G59" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H59" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I59">
         <v>9000</v>
@@ -3119,15 +3169,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
+        <v>125</v>
+      </c>
+      <c r="C60" t="s">
         <v>126</v>
-      </c>
-      <c r="C60" t="s">
-        <v>127</v>
       </c>
       <c r="D60">
         <v>1000</v>
@@ -3135,6 +3185,9 @@
       <c r="E60" s="3">
         <v>45047</v>
       </c>
+      <c r="F60" t="s">
+        <v>224</v>
+      </c>
       <c r="G60" t="s">
         <v>14</v>
       </c>
@@ -3151,12 +3204,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>114</v>
+        <v>113</v>
+      </c>
+      <c r="C61" t="s">
+        <v>113</v>
       </c>
       <c r="D61">
         <v>60</v>
@@ -3165,13 +3221,13 @@
         <v>44531</v>
       </c>
       <c r="F61" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G61" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H61" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I61">
         <v>6800</v>
@@ -3183,21 +3239,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C62" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D62">
         <v>28</v>
       </c>
+      <c r="E62" s="3">
+        <v>44531</v>
+      </c>
       <c r="F62" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G62" t="s">
         <v>20</v>
@@ -3215,15 +3274,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C63" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D63">
         <v>12</v>
@@ -3232,13 +3291,13 @@
         <v>44652</v>
       </c>
       <c r="F63" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G63" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H63" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I63">
         <v>68000</v>
@@ -3250,15 +3309,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C64" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D64">
         <v>120</v>
@@ -3267,7 +3326,7 @@
         <v>44199</v>
       </c>
       <c r="F64" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G64" t="s">
         <v>14</v>
@@ -3285,15 +3344,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D65">
         <v>240</v>
@@ -3302,13 +3361,13 @@
         <v>44470</v>
       </c>
       <c r="F65" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G65" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H65" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I65">
         <v>4000</v>
@@ -3320,15 +3379,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C66" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D66">
         <v>10</v>
@@ -3337,13 +3396,13 @@
         <v>44501</v>
       </c>
       <c r="F66" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G66" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H66" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I66">
         <v>4750</v>
@@ -3355,12 +3414,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>148</v>
+        <v>147</v>
+      </c>
+      <c r="C67" t="s">
+        <v>147</v>
       </c>
       <c r="D67">
         <v>1000</v>
@@ -3369,7 +3431,7 @@
         <v>44501</v>
       </c>
       <c r="F67" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G67" t="s">
         <v>14</v>
@@ -3387,15 +3449,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
+        <v>152</v>
+      </c>
+      <c r="C68" t="s">
         <v>153</v>
-      </c>
-      <c r="C68" t="s">
-        <v>154</v>
       </c>
       <c r="D68">
         <v>41</v>
@@ -3404,7 +3466,7 @@
         <v>44776</v>
       </c>
       <c r="F68" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G68" t="s">
         <v>14</v>
@@ -3422,15 +3484,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C69" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D69">
         <v>20</v>
@@ -3439,13 +3501,13 @@
         <v>44750</v>
       </c>
       <c r="F69" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G69" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H69" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I69">
         <v>2400</v>
@@ -3454,18 +3516,18 @@
         <v>4000</v>
       </c>
       <c r="K69" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C70" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D70">
         <v>5</v>
@@ -3474,13 +3536,13 @@
         <v>44501</v>
       </c>
       <c r="F70" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G70" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H70" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I70">
         <v>27000</v>
@@ -3489,30 +3551,33 @@
         <v>32000</v>
       </c>
       <c r="K70" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C71" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D71">
         <v>100</v>
       </c>
+      <c r="E71" s="3">
+        <v>44531</v>
+      </c>
       <c r="F71" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G71" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H71" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I71">
         <v>1860</v>
@@ -3521,18 +3586,18 @@
         <v>3000</v>
       </c>
       <c r="K71" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C72" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D72">
         <v>3</v>
@@ -3541,13 +3606,13 @@
         <v>44470</v>
       </c>
       <c r="F72" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G72" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H72" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I72">
         <v>36500</v>
@@ -3556,18 +3621,18 @@
         <v>43000</v>
       </c>
       <c r="K72" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C73" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D73">
         <v>10</v>
@@ -3575,11 +3640,14 @@
       <c r="E73" s="3">
         <v>44470</v>
       </c>
+      <c r="F73" t="s">
+        <v>224</v>
+      </c>
       <c r="G73" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H73" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I73">
         <v>5800</v>
@@ -3588,18 +3656,18 @@
         <v>8000</v>
       </c>
       <c r="K73" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C74" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D74">
         <v>2</v>
@@ -3608,13 +3676,13 @@
         <v>44531</v>
       </c>
       <c r="F74" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G74" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H74" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I74">
         <v>17000</v>
@@ -3623,15 +3691,18 @@
         <v>22000</v>
       </c>
       <c r="K74" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>165</v>
+        <v>164</v>
+      </c>
+      <c r="C75" t="s">
+        <v>164</v>
       </c>
       <c r="D75">
         <v>10</v>
@@ -3640,13 +3711,13 @@
         <v>41214</v>
       </c>
       <c r="F75" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G75" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H75" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I75">
         <v>4500</v>
@@ -3655,18 +3726,18 @@
         <v>6000</v>
       </c>
       <c r="K75" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C76" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D76">
         <v>20</v>
@@ -3675,13 +3746,13 @@
         <v>44409</v>
       </c>
       <c r="F76" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G76" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H76" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I76">
         <v>13600</v>
@@ -3690,15 +3761,18 @@
         <v>16000</v>
       </c>
       <c r="K76" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>167</v>
+        <v>166</v>
+      </c>
+      <c r="C77" t="s">
+        <v>166</v>
       </c>
       <c r="D77">
         <v>60</v>
@@ -3707,13 +3781,13 @@
         <v>44378</v>
       </c>
       <c r="F77" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G77" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H77" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I77">
         <v>10000</v>
@@ -3722,15 +3796,18 @@
         <v>13000</v>
       </c>
       <c r="K77" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>168</v>
+        <v>167</v>
+      </c>
+      <c r="C78" t="s">
+        <v>167</v>
       </c>
       <c r="D78">
         <v>30</v>
@@ -3739,13 +3816,13 @@
         <v>44378</v>
       </c>
       <c r="F78" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G78" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H78" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I78">
         <v>8000</v>
@@ -3754,27 +3831,33 @@
         <v>12000</v>
       </c>
       <c r="K78" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>169</v>
+        <v>168</v>
+      </c>
+      <c r="C79" t="s">
+        <v>226</v>
       </c>
       <c r="D79">
         <v>6</v>
       </c>
+      <c r="E79" s="3">
+        <v>44531</v>
+      </c>
       <c r="F79" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G79" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H79" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I79">
         <v>1200</v>
@@ -3782,16 +3865,19 @@
       <c r="J79">
         <v>2000</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K79" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C80" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D80">
         <v>5</v>
@@ -3800,13 +3886,13 @@
         <v>44713</v>
       </c>
       <c r="F80" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G80" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H80" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I80">
         <v>98000</v>
@@ -3815,18 +3901,18 @@
         <v>120000</v>
       </c>
       <c r="K80" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C81" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D81">
         <v>5</v>
@@ -3838,10 +3924,10 @@
         <v>24</v>
       </c>
       <c r="G81" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H81" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I81">
         <v>21000</v>
@@ -3850,18 +3936,18 @@
         <v>27000</v>
       </c>
       <c r="K81" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C82" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D82">
         <v>5</v>
@@ -3870,13 +3956,13 @@
         <v>44652</v>
       </c>
       <c r="F82" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G82" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H82" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I82">
         <v>50000</v>
@@ -3885,18 +3971,18 @@
         <v>60000</v>
       </c>
       <c r="K82" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C83" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D83">
         <v>10</v>
@@ -3905,13 +3991,13 @@
         <v>44774</v>
       </c>
       <c r="F83" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G83" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H83" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I83">
         <v>4500</v>
@@ -3920,18 +4006,18 @@
         <v>7000</v>
       </c>
       <c r="K83" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C84" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D84">
         <v>10</v>
@@ -3939,11 +4025,14 @@
       <c r="E84" s="3">
         <v>44348</v>
       </c>
+      <c r="F84" t="s">
+        <v>224</v>
+      </c>
       <c r="G84" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H84" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I84">
         <v>4200</v>
@@ -3952,18 +4041,18 @@
         <v>7000</v>
       </c>
       <c r="K84" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C85" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D85">
         <v>46</v>
@@ -3972,13 +4061,13 @@
         <v>44197</v>
       </c>
       <c r="F85" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G85" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H85" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I85">
         <v>3000</v>
@@ -3987,18 +4076,18 @@
         <v>5000</v>
       </c>
       <c r="K85" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C86" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D86">
         <v>13</v>
@@ -4007,13 +4096,13 @@
         <v>44835</v>
       </c>
       <c r="F86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G86" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H86" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I86">
         <v>26500</v>
@@ -4025,15 +4114,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C87" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D87">
         <v>15</v>
@@ -4041,11 +4130,14 @@
       <c r="E87" s="3">
         <v>44228</v>
       </c>
+      <c r="F87" t="s">
+        <v>224</v>
+      </c>
       <c r="G87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I87">
         <v>10000</v>
@@ -4057,12 +4149,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>178</v>
+        <v>177</v>
+      </c>
+      <c r="C88" t="s">
+        <v>177</v>
       </c>
       <c r="D88">
         <v>6</v>
@@ -4071,13 +4166,13 @@
         <v>44166</v>
       </c>
       <c r="F88" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G88" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H88" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I88">
         <v>10000</v>
@@ -4086,18 +4181,18 @@
         <v>14000</v>
       </c>
       <c r="K88" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C89" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D89">
         <v>40</v>
@@ -4106,7 +4201,7 @@
         <v>44531</v>
       </c>
       <c r="F89" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G89" t="s">
         <v>14</v>
@@ -4124,15 +4219,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
+        <v>221</v>
+      </c>
+      <c r="C90" t="s">
         <v>222</v>
-      </c>
-      <c r="C90" t="s">
-        <v>223</v>
       </c>
       <c r="D90">
         <v>30</v>
@@ -4141,7 +4236,7 @@
         <v>44531</v>
       </c>
       <c r="F90" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G90" t="s">
         <v>14</v>
@@ -4160,6 +4255,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K90"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
